--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem4/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem4/42/word_level_predictions_42.xlsx
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1225,59 +1225,59 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="A16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -2894,210 +2894,210 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" t="n">
         <v>3</v>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>Battery</t>
         </is>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="D48" t="n">
         <v>0</v>
       </c>
-      <c r="E48" s="2" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F48" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G48" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I48" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L48" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" t="n">
         <v>3</v>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2" t="inlineStr">
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I49" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" t="n">
         <v>3</v>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>installed</t>
         </is>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" t="n">
         <v>2</v>
       </c>
-      <c r="E50" s="2" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" t="n">
         <v>3</v>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>properly</t>
         </is>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" t="n">
         <v>3</v>
       </c>
-      <c r="E51" s="2" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G63" s="2" t="b">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G64" s="2" t="b">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_B</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -5286,158 +5286,158 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
+      <c r="A94" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" s="2" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C94" s="2" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D94" t="n">
+      <c r="D94" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="E94" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I94" t="b">
-        <v>1</v>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K94" t="b">
-        <v>1</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I94" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J94" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K94" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L94" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
+      <c r="A95" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" s="2" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C95" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D95" t="n">
+      <c r="D95" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E95" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" t="b">
-        <v>1</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K95" t="b">
-        <v>1</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F95" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G95" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K95" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L95" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
+      <c r="A96" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" s="2" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C96" s="2" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D96" t="n">
+      <c r="D96" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="E96" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I96" t="b">
-        <v>1</v>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K96" t="b">
-        <v>1</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F96" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G96" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I96" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J96" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K96" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L96" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7649,7 +7649,7 @@
       </c>
       <c r="F139" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G139" s="2" t="b">
@@ -7673,7 +7673,7 @@
       </c>
       <c r="L139" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -11422,156 +11422,156 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
+      <c r="A212" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B212" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C212" s="2" t="inlineStr">
         <is>
           <t>Please</t>
         </is>
       </c>
-      <c r="D212" t="n">
+      <c r="D212" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E212" t="inlineStr">
+      <c r="E212" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
+      <c r="F212" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G212" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I212" t="b">
-        <v>1</v>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K212" t="b">
-        <v>1</v>
-      </c>
-      <c r="L212" t="inlineStr">
+      <c r="G212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J212" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L212" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="n">
+      <c r="A213" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="B213" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
+      <c r="C213" s="2" t="inlineStr">
         <is>
           <t>check</t>
         </is>
       </c>
-      <c r="D213" t="n">
+      <c r="D213" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G213" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I213" t="b">
-        <v>1</v>
-      </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K213" t="b">
-        <v>1</v>
-      </c>
-      <c r="L213" t="inlineStr">
+      <c r="E213" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F213" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G213" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J213" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L213" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="n">
+      <c r="A214" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B214" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="C214" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D214" t="n">
+      <c r="D214" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K214" t="b">
-        <v>1</v>
-      </c>
-      <c r="L214" t="inlineStr">
+      <c r="E214" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F214" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J214" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L214" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11601,7 +11601,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G215" t="b">
@@ -11625,7 +11625,7 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -11942,208 +11942,208 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="n">
+      <c r="A222" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="B222" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
+      <c r="C222" s="2" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D222" t="n">
+      <c r="D222" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E222" t="inlineStr">
+      <c r="E222" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G222" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I222" t="b">
-        <v>1</v>
-      </c>
-      <c r="J222" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K222" t="b">
-        <v>1</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F222" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G222" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J222" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L222" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="n">
+      <c r="A223" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B223" t="inlineStr">
+      <c r="B223" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C223" t="inlineStr">
+      <c r="C223" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D223" t="n">
+      <c r="D223" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E223" t="inlineStr">
+      <c r="E223" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr">
+      <c r="F223" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G223" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I223" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J223" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K223" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L223" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B224" s="2" t="inlineStr">
+        <is>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C224" s="2" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="D224" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E224" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G223" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I223" t="b">
-        <v>1</v>
-      </c>
-      <c r="J223" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K223" t="b">
-        <v>1</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
+      <c r="F224" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G224" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J224" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L224" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B224" t="inlineStr">
+      <c r="B225" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="D224" t="n">
-        <v>4</v>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G224" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I224" t="b">
-        <v>1</v>
-      </c>
-      <c r="J224" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K224" t="b">
-        <v>1</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>14</v>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
+      <c r="C225" s="2" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D225" t="n">
+      <c r="D225" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E225" t="inlineStr">
+      <c r="E225" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
+      <c r="F225" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G225" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I225" t="b">
-        <v>1</v>
-      </c>
-      <c r="J225" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K225" t="b">
-        <v>1</v>
-      </c>
-      <c r="L225" t="inlineStr">
+      <c r="G225" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J225" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L225" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem4/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem4/42/word_level_predictions_42.xlsx
@@ -1201,83 +1201,83 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Camera error AI Spot-Check failed Restart camera .</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>Camera error AI Spot-Check failed Restart camera .</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>failed</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2894,210 +2894,210 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t>Battery</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E48" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K48" t="b">
-        <v>1</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" t="inlineStr">
+      <c r="D49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>installed</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>installed</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>2</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K50" t="b">
-        <v>1</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>properly</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>properly</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>3</v>
-      </c>
-      <c r="E51" t="inlineStr">
+      <c r="E51" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G63" s="2" t="b">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G64" s="2" t="b">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_E_as_B</t>
         </is>
       </c>
     </row>
@@ -5286,158 +5286,158 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
+      <c r="A94" t="n">
         <v>6</v>
       </c>
-      <c r="B94" s="2" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C94" s="2" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D94" s="2" t="n">
+      <c r="D94" t="n">
         <v>3</v>
       </c>
-      <c r="E94" s="2" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F94" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G94" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I94" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J94" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K94" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L94" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I94" t="b">
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K94" t="b">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="A95" t="n">
         <v>6</v>
       </c>
-      <c r="B95" s="2" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C95" s="2" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D95" s="2" t="n">
+      <c r="D95" t="n">
         <v>4</v>
       </c>
-      <c r="E95" s="2" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F95" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G95" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L95" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K95" t="b">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n">
+      <c r="A96" t="n">
         <v>6</v>
       </c>
-      <c r="B96" s="2" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C96" s="2" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D96" s="2" t="n">
+      <c r="D96" t="n">
         <v>5</v>
       </c>
-      <c r="E96" s="2" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F96" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G96" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I96" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J96" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K96" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L96" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G96" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I96" t="b">
+        <v>1</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K96" t="b">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7649,7 +7649,7 @@
       </c>
       <c r="F139" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G139" s="2" t="b">
@@ -7673,7 +7673,7 @@
       </c>
       <c r="L139" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11422,156 +11422,156 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="n">
+      <c r="A212" t="n">
         <v>13</v>
       </c>
-      <c r="B212" s="2" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C212" s="2" t="inlineStr">
+      <c r="C212" t="inlineStr">
         <is>
           <t>Please</t>
         </is>
       </c>
-      <c r="D212" s="2" t="n">
+      <c r="D212" t="n">
         <v>5</v>
       </c>
-      <c r="E212" s="2" t="inlineStr">
+      <c r="E212" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F212" s="2" t="inlineStr">
+      <c r="F212" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G212" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L212" s="2" t="inlineStr">
+      <c r="G212" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I212" t="b">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K212" t="b">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="n">
+      <c r="A213" t="n">
         <v>13</v>
       </c>
-      <c r="B213" s="2" t="inlineStr">
+      <c r="B213" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C213" s="2" t="inlineStr">
+      <c r="C213" t="inlineStr">
         <is>
           <t>check</t>
         </is>
       </c>
-      <c r="D213" s="2" t="n">
+      <c r="D213" t="n">
         <v>6</v>
       </c>
-      <c r="E213" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F213" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G213" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L213" s="2" t="inlineStr">
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G213" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I213" t="b">
+        <v>1</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K213" t="b">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="n">
+      <c r="A214" t="n">
         <v>13</v>
       </c>
-      <c r="B214" s="2" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C214" s="2" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D214" s="2" t="n">
+      <c r="D214" t="n">
         <v>7</v>
       </c>
-      <c r="E214" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F214" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L214" s="2" t="inlineStr">
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K214" t="b">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11601,7 +11601,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G215" t="b">
@@ -11625,7 +11625,7 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11942,208 +11942,208 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="2" t="n">
+      <c r="A222" t="n">
         <v>14</v>
       </c>
-      <c r="B222" s="2" t="inlineStr">
+      <c r="B222" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C222" s="2" t="inlineStr">
+      <c r="C222" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D222" s="2" t="n">
+      <c r="D222" t="n">
         <v>2</v>
       </c>
-      <c r="E222" s="2" t="inlineStr">
+      <c r="E222" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F222" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G222" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J222" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L222" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G222" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I222" t="b">
+        <v>1</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K222" t="b">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="2" t="n">
+      <c r="A223" t="n">
         <v>14</v>
       </c>
-      <c r="B223" s="2" t="inlineStr">
+      <c r="B223" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C223" s="2" t="inlineStr">
+      <c r="C223" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D223" s="2" t="n">
+      <c r="D223" t="n">
         <v>3</v>
       </c>
-      <c r="E223" s="2" t="inlineStr">
+      <c r="E223" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F223" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G223" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I223" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J223" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K223" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L223" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G223" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I223" t="b">
+        <v>1</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K223" t="b">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="2" t="n">
+      <c r="A224" t="n">
         <v>14</v>
       </c>
-      <c r="B224" s="2" t="inlineStr">
+      <c r="B224" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C224" s="2" t="inlineStr">
+      <c r="C224" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D224" s="2" t="n">
+      <c r="D224" t="n">
         <v>4</v>
       </c>
-      <c r="E224" s="2" t="inlineStr">
+      <c r="E224" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F224" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G224" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J224" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L224" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G224" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I224" t="b">
+        <v>1</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K224" t="b">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="2" t="n">
+      <c r="A225" t="n">
         <v>14</v>
       </c>
-      <c r="B225" s="2" t="inlineStr">
+      <c r="B225" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C225" s="2" t="inlineStr">
+      <c r="C225" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D225" s="2" t="n">
+      <c r="D225" t="n">
         <v>5</v>
       </c>
-      <c r="E225" s="2" t="inlineStr">
+      <c r="E225" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F225" s="2" t="inlineStr">
+      <c r="F225" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G225" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J225" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L225" s="2" t="inlineStr">
+      <c r="G225" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I225" t="b">
+        <v>1</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K225" t="b">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
